--- a/teamstats_.xlsx
+++ b/teamstats_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="654">
   <si>
     <t>LeagueID</t>
   </si>
@@ -310,54 +310,54 @@
     <t>Houston</t>
   </si>
   <si>
+    <t>New York</t>
+  </si>
+  <si>
     <t>Memphis</t>
   </si>
   <si>
-    <t>New York</t>
-  </si>
-  <si>
     <t>Denver</t>
   </si>
   <si>
     <t>Orlando</t>
   </si>
   <si>
+    <t>Dallas</t>
+  </si>
+  <si>
     <t>Milwaukee</t>
   </si>
   <si>
-    <t>Dallas</t>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
   </si>
   <si>
     <t>Indiana</t>
   </si>
   <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>LA</t>
+    <t>San Antonio</t>
   </si>
   <si>
     <t>Detroit</t>
   </si>
   <si>
-    <t>Atlanta</t>
+    <t>Chicago</t>
   </si>
   <si>
     <t>Golden State</t>
   </si>
   <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
     <t>Philadelphia</t>
   </si>
   <si>
@@ -400,54 +400,54 @@
     <t>Rockets</t>
   </si>
   <si>
+    <t>Knicks</t>
+  </si>
+  <si>
     <t>Grizzlies</t>
   </si>
   <si>
-    <t>Knicks</t>
-  </si>
-  <si>
     <t>Nuggets</t>
   </si>
   <si>
     <t>Magic</t>
   </si>
   <si>
+    <t>Mavericks</t>
+  </si>
+  <si>
     <t>Bucks</t>
   </si>
   <si>
-    <t>Mavericks</t>
+    <t>Lakers</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Hawks</t>
+  </si>
+  <si>
+    <t>Clippers</t>
+  </si>
+  <si>
+    <t>Timberwolves</t>
   </si>
   <si>
     <t>Pacers</t>
   </si>
   <si>
-    <t>Lakers</t>
-  </si>
-  <si>
-    <t>Clippers</t>
+    <t>Spurs</t>
   </si>
   <si>
     <t>Pistons</t>
   </si>
   <si>
-    <t>Hawks</t>
+    <t>Bulls</t>
   </si>
   <si>
     <t>Warriors</t>
   </si>
   <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>Timberwolves</t>
-  </si>
-  <si>
-    <t>Bulls</t>
-  </si>
-  <si>
-    <t>Spurs</t>
-  </si>
-  <si>
     <t>76ers</t>
   </si>
   <si>
@@ -490,54 +490,54 @@
     <t>rockets</t>
   </si>
   <si>
+    <t>knicks</t>
+  </si>
+  <si>
     <t>grizzlies</t>
   </si>
   <si>
-    <t>knicks</t>
-  </si>
-  <si>
     <t>nuggets</t>
   </si>
   <si>
     <t>magic</t>
   </si>
   <si>
+    <t>mavericks</t>
+  </si>
+  <si>
     <t>bucks</t>
   </si>
   <si>
-    <t>mavericks</t>
+    <t>lakers</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>hawks</t>
+  </si>
+  <si>
+    <t>clippers</t>
+  </si>
+  <si>
+    <t>timberwolves</t>
   </si>
   <si>
     <t>pacers</t>
   </si>
   <si>
-    <t>lakers</t>
-  </si>
-  <si>
-    <t>clippers</t>
+    <t>spurs</t>
   </si>
   <si>
     <t>pistons</t>
   </si>
   <si>
-    <t>hawks</t>
+    <t>bulls</t>
   </si>
   <si>
     <t>warriors</t>
   </si>
   <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>timberwolves</t>
-  </si>
-  <si>
-    <t>bulls</t>
-  </si>
-  <si>
-    <t>spurs</t>
-  </si>
-  <si>
     <t>sixers</t>
   </si>
   <si>
@@ -586,54 +586,54 @@
     <t xml:space="preserve">15-8 </t>
   </si>
   <si>
+    <t xml:space="preserve">17-9 </t>
+  </si>
+  <si>
     <t>11-10</t>
   </si>
   <si>
-    <t xml:space="preserve">17-9 </t>
-  </si>
-  <si>
     <t>13-10</t>
   </si>
   <si>
     <t>18-10</t>
   </si>
   <si>
+    <t>15-13</t>
+  </si>
+  <si>
     <t>16-14</t>
   </si>
   <si>
-    <t>15-13</t>
+    <t xml:space="preserve">16-9 </t>
+  </si>
+  <si>
+    <t>11-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-7 </t>
+  </si>
+  <si>
+    <t>14-15</t>
+  </si>
+  <si>
+    <t>16-10</t>
   </si>
   <si>
     <t>11-14</t>
   </si>
   <si>
-    <t xml:space="preserve">16-9 </t>
-  </si>
-  <si>
-    <t>14-15</t>
+    <t>15-14</t>
   </si>
   <si>
     <t>12-14</t>
   </si>
   <si>
-    <t xml:space="preserve">13-7 </t>
+    <t>14-12</t>
   </si>
   <si>
     <t>14-13</t>
   </si>
   <si>
-    <t>11-11</t>
-  </si>
-  <si>
-    <t>15-10</t>
-  </si>
-  <si>
-    <t>14-12</t>
-  </si>
-  <si>
-    <t>15-14</t>
-  </si>
-  <si>
     <t>13-14</t>
   </si>
   <si>
@@ -652,1321 +652,1327 @@
     <t xml:space="preserve">3-21 </t>
   </si>
   <si>
+    <t xml:space="preserve">3-18 </t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Northwest</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>Southwest</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-7  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-6  </t>
+  </si>
+  <si>
+    <t>31-4</t>
+  </si>
+  <si>
+    <t>30-5</t>
+  </si>
+  <si>
+    <t>27-10</t>
+  </si>
+  <si>
+    <t>24-12</t>
+  </si>
+  <si>
+    <t>24-13</t>
+  </si>
+  <si>
+    <t>20-15</t>
+  </si>
+  <si>
+    <t>22-16</t>
+  </si>
+  <si>
+    <t>21-16</t>
+  </si>
+  <si>
+    <t>18-16</t>
+  </si>
+  <si>
+    <t>20-16</t>
+  </si>
+  <si>
+    <t>18-17</t>
+  </si>
+  <si>
+    <t>19-18</t>
+  </si>
+  <si>
+    <t>19-17</t>
+  </si>
+  <si>
+    <t>18-18</t>
+  </si>
+  <si>
+    <t>17-19</t>
+  </si>
+  <si>
+    <t>14-20</t>
+  </si>
+  <si>
+    <t>18-19</t>
+  </si>
+  <si>
+    <t>13-23</t>
+  </si>
+  <si>
+    <t>16-19</t>
+  </si>
+  <si>
+    <t>12-23</t>
+  </si>
+  <si>
+    <t>8-27</t>
+  </si>
+  <si>
+    <t>8-28</t>
+  </si>
+  <si>
+    <t>9-26</t>
+  </si>
+  <si>
+    <t>7-30</t>
+  </si>
+  <si>
+    <t>6-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-11 </t>
+  </si>
+  <si>
+    <t>10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-10 </t>
+  </si>
+  <si>
+    <t>10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-9  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-9  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-7  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-7  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-9  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-7  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-9  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-26 </t>
+  </si>
+  <si>
+    <t>W 10</t>
+  </si>
+  <si>
+    <t>W 9</t>
+  </si>
+  <si>
+    <t>W 7</t>
+  </si>
+  <si>
+    <t>W 6</t>
+  </si>
+  <si>
+    <t>W 8</t>
+  </si>
+  <si>
+    <t>W 5</t>
+  </si>
+  <si>
+    <t>W 4</t>
+  </si>
+  <si>
+    <t>W 3</t>
+  </si>
+  <si>
+    <t>L 4</t>
+  </si>
+  <si>
+    <t>L 3</t>
+  </si>
+  <si>
+    <t>L 5</t>
+  </si>
+  <si>
+    <t>L 6</t>
+  </si>
+  <si>
+    <t>L 10</t>
+  </si>
+  <si>
+    <t>L 7</t>
+  </si>
+  <si>
+    <t>L 8</t>
+  </si>
+  <si>
+    <t>W 2</t>
+  </si>
+  <si>
+    <t>L 15</t>
+  </si>
+  <si>
+    <t>L 13</t>
+  </si>
+  <si>
+    <t>W 1</t>
+  </si>
+  <si>
+    <t>L 1</t>
+  </si>
+  <si>
+    <t>L 2</t>
+  </si>
+  <si>
+    <t>W 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-9  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-9  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-21 </t>
+  </si>
+  <si>
     <t xml:space="preserve">3-17 </t>
   </si>
   <si>
-    <t>Central</t>
-  </si>
-  <si>
-    <t>Northwest</t>
-  </si>
-  <si>
-    <t>Atlantic</t>
-  </si>
-  <si>
-    <t>Southwest</t>
-  </si>
-  <si>
-    <t>Southeast</t>
-  </si>
-  <si>
-    <t>Pacific</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-0  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-7  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-8  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-6  </t>
-  </si>
-  <si>
-    <t>31-4</t>
-  </si>
-  <si>
-    <t>30-5</t>
+    <t xml:space="preserve">3-0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-7  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-9  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-8 </t>
+  </si>
+  <si>
+    <t>23-11</t>
+  </si>
+  <si>
+    <t>20-12</t>
+  </si>
+  <si>
+    <t>20-13</t>
+  </si>
+  <si>
+    <t>17-14</t>
+  </si>
+  <si>
+    <t>20-11</t>
+  </si>
+  <si>
+    <t>19-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-8 </t>
+  </si>
+  <si>
+    <t>17-15</t>
+  </si>
+  <si>
+    <t>19-14</t>
+  </si>
+  <si>
+    <t>16-13</t>
+  </si>
+  <si>
+    <t>18-14</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>16-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-5 </t>
+  </si>
+  <si>
+    <t>18-11</t>
+  </si>
+  <si>
+    <t>19-13</t>
+  </si>
+  <si>
+    <t>18-15</t>
+  </si>
+  <si>
+    <t>11-15</t>
+  </si>
+  <si>
+    <t>13-16</t>
+  </si>
+  <si>
+    <t>16-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-17 </t>
+  </si>
+  <si>
+    <t>10-16</t>
+  </si>
+  <si>
+    <t>17-16</t>
+  </si>
+  <si>
+    <t>12-18</t>
+  </si>
+  <si>
+    <t>13-18</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>14-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-19 </t>
+  </si>
+  <si>
+    <t>14-19</t>
+  </si>
+  <si>
+    <t>11-22</t>
+  </si>
+  <si>
+    <t>13-17</t>
+  </si>
+  <si>
+    <t>10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-7  </t>
+  </si>
+  <si>
+    <t>13-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-13 </t>
+  </si>
+  <si>
+    <t>13-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-15 </t>
+  </si>
+  <si>
+    <t>10-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-5  </t>
+  </si>
+  <si>
+    <t>12-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-11 </t>
+  </si>
+  <si>
+    <t>21-4</t>
+  </si>
+  <si>
+    <t>11-0</t>
+  </si>
+  <si>
+    <t>22-7</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>17-9</t>
+  </si>
+  <si>
+    <t>13-3</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>13-7</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>7-19</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>6-24</t>
+  </si>
+  <si>
+    <t>5-17</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>4-12</t>
+  </si>
+  <si>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>0-6</t>
+  </si>
+  <si>
+    <t>6-0</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>0-8</t>
+  </si>
+  <si>
+    <t>10-0</t>
+  </si>
+  <si>
+    <t>19-5</t>
+  </si>
+  <si>
+    <t>15-8</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>16-9</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>3-21</t>
+  </si>
+  <si>
+    <t>3-18</t>
+  </si>
+  <si>
+    <t>1-11</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>0-7</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>5-0</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>12-3</t>
+  </si>
+  <si>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>12-2</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>11-5</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>8-8</t>
+  </si>
+  <si>
+    <t>10-6</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>5-11</t>
+  </si>
+  <si>
+    <t>7-9</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>4-11</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>2-13</t>
+  </si>
+  <si>
+    <t>0-14</t>
+  </si>
+  <si>
+    <t>12-1</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>1-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-30 </t>
   </si>
   <si>
     <t>26-10</t>
-  </si>
-  <si>
-    <t>24-12</t>
-  </si>
-  <si>
-    <t>24-13</t>
-  </si>
-  <si>
-    <t>20-14</t>
-  </si>
-  <si>
-    <t>22-16</t>
-  </si>
-  <si>
-    <t>18-16</t>
-  </si>
-  <si>
-    <t>21-16</t>
-  </si>
-  <si>
-    <t>19-18</t>
-  </si>
-  <si>
-    <t>20-16</t>
-  </si>
-  <si>
-    <t>18-18</t>
-  </si>
-  <si>
-    <t>18-17</t>
-  </si>
-  <si>
-    <t>17-17</t>
-  </si>
-  <si>
-    <t>17-19</t>
-  </si>
-  <si>
-    <t>14-20</t>
-  </si>
-  <si>
-    <t>18-19</t>
-  </si>
-  <si>
-    <t>13-23</t>
-  </si>
-  <si>
-    <t>16-19</t>
-  </si>
-  <si>
-    <t>12-23</t>
-  </si>
-  <si>
-    <t>8-27</t>
-  </si>
-  <si>
-    <t>8-28</t>
-  </si>
-  <si>
-    <t>9-25</t>
-  </si>
-  <si>
-    <t>7-29</t>
-  </si>
-  <si>
-    <t>6-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-8  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-10 </t>
-  </si>
-  <si>
-    <t>10-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-8  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-9  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-9  </t>
-  </si>
-  <si>
-    <t>10-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-7  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-7  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-8  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-9  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-0  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-0  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-0  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-0  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-7  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-9  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-26 </t>
-  </si>
-  <si>
-    <t>W 10</t>
-  </si>
-  <si>
-    <t>W 9</t>
-  </si>
-  <si>
-    <t>W 7</t>
-  </si>
-  <si>
-    <t>W 8</t>
-  </si>
-  <si>
-    <t>W 6</t>
-  </si>
-  <si>
-    <t>W 5</t>
-  </si>
-  <si>
-    <t>W 4</t>
-  </si>
-  <si>
-    <t>W 3</t>
-  </si>
-  <si>
-    <t>L 4</t>
-  </si>
-  <si>
-    <t>L 3</t>
-  </si>
-  <si>
-    <t>L 5</t>
-  </si>
-  <si>
-    <t>L 6</t>
-  </si>
-  <si>
-    <t>L 10</t>
-  </si>
-  <si>
-    <t>L 7</t>
-  </si>
-  <si>
-    <t>W 2</t>
-  </si>
-  <si>
-    <t>L 8</t>
-  </si>
-  <si>
-    <t>L 15</t>
-  </si>
-  <si>
-    <t>L 13</t>
-  </si>
-  <si>
-    <t>W 1</t>
-  </si>
-  <si>
-    <t>L 1</t>
-  </si>
-  <si>
-    <t>L 2</t>
-  </si>
-  <si>
-    <t>W 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-9  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-8  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-9  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-0  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-7  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-9  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-8 </t>
-  </si>
-  <si>
-    <t>23-11</t>
-  </si>
-  <si>
-    <t>20-11</t>
-  </si>
-  <si>
-    <t>17-14</t>
-  </si>
-  <si>
-    <t>20-13</t>
-  </si>
-  <si>
-    <t>19-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-8 </t>
-  </si>
-  <si>
-    <t>16-13</t>
-  </si>
-  <si>
-    <t>14-14</t>
-  </si>
-  <si>
-    <t>16-15</t>
-  </si>
-  <si>
-    <t>17-15</t>
-  </si>
-  <si>
-    <t>18-14</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-5 </t>
-  </si>
-  <si>
-    <t>17-10</t>
-  </si>
-  <si>
-    <t>18-11</t>
-  </si>
-  <si>
-    <t>19-13</t>
-  </si>
-  <si>
-    <t>11-15</t>
-  </si>
-  <si>
-    <t>16-16</t>
-  </si>
-  <si>
-    <t>13-16</t>
-  </si>
-  <si>
-    <t>17-16</t>
-  </si>
-  <si>
-    <t>13-18</t>
-  </si>
-  <si>
-    <t>14-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-17 </t>
-  </si>
-  <si>
-    <t>10-16</t>
-  </si>
-  <si>
-    <t>15-19</t>
-  </si>
-  <si>
-    <t>12-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-19 </t>
-  </si>
-  <si>
-    <t>14-19</t>
-  </si>
-  <si>
-    <t>11-22</t>
-  </si>
-  <si>
-    <t>13-17</t>
-  </si>
-  <si>
-    <t>10-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-29 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-7  </t>
-  </si>
-  <si>
-    <t>13-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-15 </t>
-  </si>
-  <si>
-    <t>10-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13-9 </t>
-  </si>
-  <si>
-    <t>12-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-0  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-8  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-6  </t>
-  </si>
-  <si>
-    <t>12-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-11 </t>
-  </si>
-  <si>
-    <t>21-4</t>
-  </si>
-  <si>
-    <t>11-0</t>
-  </si>
-  <si>
-    <t>22-7</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>13-3</t>
-  </si>
-  <si>
-    <t>17-9</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>13-7</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>7-19</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>6-24</t>
-  </si>
-  <si>
-    <t>5-17</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>4-12</t>
-  </si>
-  <si>
-    <t>8-1</t>
-  </si>
-  <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>1-9</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>0-4</t>
-  </si>
-  <si>
-    <t>0-6</t>
-  </si>
-  <si>
-    <t>6-0</t>
-  </si>
-  <si>
-    <t>10-4</t>
-  </si>
-  <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>0-0</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>1-8</t>
-  </si>
-  <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>4-0</t>
-  </si>
-  <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>1-0</t>
-  </si>
-  <si>
-    <t>0-8</t>
-  </si>
-  <si>
-    <t>10-0</t>
-  </si>
-  <si>
-    <t>19-5</t>
-  </si>
-  <si>
-    <t>15-8</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>16-9</t>
-  </si>
-  <si>
-    <t>5-11</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>3-11</t>
-  </si>
-  <si>
-    <t>3-21</t>
-  </si>
-  <si>
-    <t>3-17</t>
-  </si>
-  <si>
-    <t>1-11</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>9-5</t>
-  </si>
-  <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>0-7</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>0-10</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>5-0</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>12-3</t>
-  </si>
-  <si>
-    <t>11-4</t>
-  </si>
-  <si>
-    <t>12-2</t>
-  </si>
-  <si>
-    <t>9-6</t>
-  </si>
-  <si>
-    <t>8-5</t>
-  </si>
-  <si>
-    <t>11-5</t>
-  </si>
-  <si>
-    <t>7-8</t>
-  </si>
-  <si>
-    <t>8-6</t>
-  </si>
-  <si>
-    <t>10-6</t>
-  </si>
-  <si>
-    <t>8-9</t>
-  </si>
-  <si>
-    <t>8-8</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>7-9</t>
-  </si>
-  <si>
-    <t>7-7</t>
-  </si>
-  <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>4-11</t>
-  </si>
-  <si>
-    <t>4-10</t>
-  </si>
-  <si>
-    <t>2-13</t>
-  </si>
-  <si>
-    <t>0-14</t>
-  </si>
-  <si>
-    <t>12-1</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>2-11</t>
-  </si>
-  <si>
-    <t>1-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-29 </t>
-  </si>
-  <si>
-    <t>25-10</t>
   </si>
   <si>
     <t xml:space="preserve">8-28 </t>
@@ -2709,7 +2715,7 @@
         <v>8</v>
       </c>
       <c r="AI2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ2">
         <v>5</v>
@@ -2757,7 +2763,7 @@
         <v>322</v>
       </c>
       <c r="AY2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AZ2" t="s">
         <v>236</v>
@@ -2766,19 +2772,19 @@
         <v>320</v>
       </c>
       <c r="BB2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BC2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="BD2" t="s">
         <v>380</v>
       </c>
       <c r="BE2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="BF2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="BG2" t="s">
         <v>376</v>
@@ -2793,46 +2799,46 @@
         <v>11.8</v>
       </c>
       <c r="BK2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="BL2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="BM2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="BN2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="BO2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="BP2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BQ2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="BR2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BS2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="CB2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="CC2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="CD2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="CE2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="CF2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="CG2" t="s">
         <v>320</v>
@@ -2856,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="CO2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2948,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="AE3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF3">
         <v>15</v>
@@ -2966,7 +2972,7 @@
         <v>6</v>
       </c>
       <c r="AK3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL3">
         <v>15</v>
@@ -3002,7 +3008,7 @@
         <v>375</v>
       </c>
       <c r="AW3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AX3" t="s">
         <v>322</v>
@@ -3017,22 +3023,22 @@
         <v>324</v>
       </c>
       <c r="BB3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="BC3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="BD3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="BE3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="BF3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="BG3" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="BH3">
         <v>115.1</v>
@@ -3044,46 +3050,46 @@
         <v>12.1</v>
       </c>
       <c r="BK3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="BL3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BM3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="BN3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="BO3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="BP3" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="BQ3" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="BR3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="BS3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="CB3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="CC3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="CD3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="CE3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="CF3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="CG3" t="s">
         <v>320</v>
@@ -3107,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="CO3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -3151,13 +3157,13 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4">
         <v>10</v>
       </c>
       <c r="Q4">
-        <v>0.722</v>
+        <v>0.73</v>
       </c>
       <c r="S4" t="s">
         <v>242</v>
@@ -3172,7 +3178,7 @@
         <v>310</v>
       </c>
       <c r="W4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="X4" t="s">
         <v>311</v>
@@ -3181,10 +3187,10 @@
         <v>321</v>
       </c>
       <c r="Z4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AA4" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="AB4">
         <v>7</v>
@@ -3211,19 +3217,19 @@
         <v>370</v>
       </c>
       <c r="AJ4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AL4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AN4">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -3250,37 +3256,37 @@
         <v>376</v>
       </c>
       <c r="AW4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AX4" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="AY4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AZ4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="BA4" t="s">
         <v>329</v>
       </c>
       <c r="BB4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BC4" t="s">
-        <v>464</v>
+        <v>193</v>
       </c>
       <c r="BD4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="BE4" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="BF4" t="s">
-        <v>417</v>
+        <v>489</v>
       </c>
       <c r="BG4" t="s">
-        <v>379</v>
+        <v>525</v>
       </c>
       <c r="BH4">
         <v>118.5</v>
@@ -3292,46 +3298,46 @@
         <v>10.2</v>
       </c>
       <c r="BK4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="BL4" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="BM4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="BN4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="BO4" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="BP4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="BQ4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BR4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BS4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="CB4" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="CC4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="CD4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="CE4" t="s">
         <v>242</v>
       </c>
       <c r="CF4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="CG4" t="s">
         <v>320</v>
@@ -3340,22 +3346,22 @@
         <v>322</v>
       </c>
       <c r="CI4">
-        <v>4267</v>
+        <v>4385</v>
       </c>
       <c r="CJ4">
-        <v>3900</v>
+        <v>4006</v>
       </c>
       <c r="CK4">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="CL4">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="CN4">
         <v>0</v>
       </c>
       <c r="CO4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -3417,13 +3423,13 @@
         <v>267</v>
       </c>
       <c r="U5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V5" t="s">
         <v>311</v>
       </c>
       <c r="W5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="X5" t="s">
         <v>311</v>
@@ -3435,7 +3441,7 @@
         <v>331</v>
       </c>
       <c r="AA5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AB5">
         <v>7</v>
@@ -3471,7 +3477,7 @@
         <v>2</v>
       </c>
       <c r="AM5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN5">
         <v>6.5</v>
@@ -3501,37 +3507,37 @@
         <v>377</v>
       </c>
       <c r="AW5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AX5" t="s">
         <v>320</v>
       </c>
       <c r="AY5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AZ5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="BA5" t="s">
         <v>320</v>
       </c>
       <c r="BB5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BC5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="BD5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="BE5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="BF5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BG5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="BH5">
         <v>112.9</v>
@@ -3543,40 +3549,40 @@
         <v>6.1</v>
       </c>
       <c r="BK5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="BL5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="BM5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="BN5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="BO5" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="BP5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="BQ5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="BR5" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="BS5" t="s">
+        <v>557</v>
+      </c>
+      <c r="CB5" t="s">
         <v>559</v>
       </c>
-      <c r="CB5" t="s">
-        <v>564</v>
-      </c>
       <c r="CC5" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="CD5" t="s">
-        <v>611</v>
+        <v>538</v>
       </c>
       <c r="CE5" t="s">
         <v>243</v>
@@ -3606,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="CO5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:93">
@@ -3620,7 +3626,7 @@
         <v>93</v>
       </c>
       <c r="D6">
-        <v>1610612763</v>
+        <v>1610612752</v>
       </c>
       <c r="E6" t="s">
         <v>98</v>
@@ -3632,7 +3638,7 @@
         <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I6" t="s">
         <v>190</v>
@@ -3641,10 +3647,10 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -3658,6 +3664,9 @@
       <c r="Q6">
         <v>0.649</v>
       </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
       <c r="S6" t="s">
         <v>244</v>
       </c>
@@ -3668,46 +3677,46 @@
         <v>292</v>
       </c>
       <c r="V6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W6" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="X6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Y6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Z6" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AA6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AB6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC6" t="s">
         <v>355</v>
       </c>
       <c r="AD6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="AF6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AI6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AJ6">
         <v>-2</v>
@@ -3716,16 +3725,16 @@
         <v>372</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AM6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="AN6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO6">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -3749,82 +3758,82 @@
         <v>378</v>
       </c>
       <c r="AW6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>335</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>395</v>
       </c>
-      <c r="AX6" t="s">
-        <v>320</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>319</v>
-      </c>
       <c r="BA6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="BB6" t="s">
-        <v>244</v>
+        <v>446</v>
       </c>
       <c r="BC6" t="s">
-        <v>466</v>
+        <v>194</v>
       </c>
       <c r="BD6" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="BE6" t="s">
-        <v>337</v>
+        <v>503</v>
       </c>
       <c r="BF6" t="s">
-        <v>191</v>
+        <v>376</v>
       </c>
       <c r="BG6" t="s">
-        <v>509</v>
+        <v>274</v>
       </c>
       <c r="BH6">
-        <v>123.1</v>
+        <v>117.2</v>
       </c>
       <c r="BI6">
-        <v>114.7</v>
+        <v>110.5</v>
       </c>
       <c r="BJ6">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="BK6" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="BL6" t="s">
         <v>556</v>
       </c>
       <c r="BM6" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="BN6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="BO6" t="s">
-        <v>190</v>
+        <v>603</v>
       </c>
       <c r="BP6" t="s">
+        <v>559</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>598</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>559</v>
+      </c>
+      <c r="BS6" t="s">
         <v>593</v>
       </c>
-      <c r="BQ6" t="s">
-        <v>601</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>564</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>563</v>
-      </c>
       <c r="CB6" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
       <c r="CC6" t="s">
-        <v>573</v>
+        <v>628</v>
       </c>
       <c r="CD6" t="s">
-        <v>573</v>
+        <v>627</v>
       </c>
       <c r="CE6" t="s">
         <v>244</v>
@@ -3839,13 +3848,13 @@
         <v>320</v>
       </c>
       <c r="CI6">
-        <v>4555</v>
+        <v>4335</v>
       </c>
       <c r="CJ6">
-        <v>4244</v>
+        <v>4087</v>
       </c>
       <c r="CK6">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="CL6">
         <v>8</v>
@@ -3854,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="CO6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:93">
@@ -3868,7 +3877,7 @@
         <v>93</v>
       </c>
       <c r="D7">
-        <v>1610612752</v>
+        <v>1610612763</v>
       </c>
       <c r="E7" t="s">
         <v>99</v>
@@ -3880,7 +3889,7 @@
         <v>159</v>
       </c>
       <c r="H7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I7" t="s">
         <v>191</v>
@@ -3889,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -3906,9 +3915,6 @@
       <c r="Q7">
         <v>0.649</v>
       </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
       <c r="S7" t="s">
         <v>244</v>
       </c>
@@ -3919,46 +3925,46 @@
         <v>293</v>
       </c>
       <c r="V7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="X7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Y7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Z7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AA7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AB7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="s">
         <v>356</v>
       </c>
       <c r="AD7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="AF7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AI7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AJ7">
         <v>-2</v>
@@ -3967,16 +3973,16 @@
         <v>372</v>
       </c>
       <c r="AL7">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AM7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AN7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO7">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -4000,82 +4006,82 @@
         <v>379</v>
       </c>
       <c r="AW7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AX7" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="AY7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AZ7" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="BA7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BB7" t="s">
-        <v>445</v>
+        <v>244</v>
       </c>
       <c r="BC7" t="s">
-        <v>195</v>
+        <v>467</v>
       </c>
       <c r="BD7" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="BE7" t="s">
-        <v>500</v>
+        <v>337</v>
       </c>
       <c r="BF7" t="s">
-        <v>376</v>
+        <v>190</v>
       </c>
       <c r="BG7" t="s">
-        <v>276</v>
+        <v>512</v>
       </c>
       <c r="BH7">
-        <v>117.2</v>
+        <v>123.1</v>
       </c>
       <c r="BI7">
-        <v>110.5</v>
+        <v>114.7</v>
       </c>
       <c r="BJ7">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="BK7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="BL7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="BM7" t="s">
+        <v>577</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>591</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>594</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>604</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>559</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>564</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>618</v>
+      </c>
+      <c r="CC7" t="s">
         <v>575</v>
       </c>
-      <c r="BN7" t="s">
-        <v>590</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>536</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>564</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>596</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>564</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>592</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>565</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>626</v>
-      </c>
       <c r="CD7" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="CE7" t="s">
         <v>244</v>
@@ -4090,13 +4096,13 @@
         <v>320</v>
       </c>
       <c r="CI7">
-        <v>4335</v>
+        <v>4555</v>
       </c>
       <c r="CJ7">
-        <v>4087</v>
+        <v>4244</v>
       </c>
       <c r="CK7">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="CL7">
         <v>8</v>
@@ -4105,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="CO7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:93">
@@ -4152,10 +4158,10 @@
         <v>20</v>
       </c>
       <c r="P8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q8">
-        <v>0.588</v>
+        <v>0.571</v>
       </c>
       <c r="S8" t="s">
         <v>245</v>
@@ -4164,25 +4170,25 @@
         <v>270</v>
       </c>
       <c r="U8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="W8" t="s">
         <v>312</v>
       </c>
       <c r="X8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Y8" t="s">
         <v>323</v>
       </c>
       <c r="Z8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AA8" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="AB8">
         <v>5</v>
@@ -4203,28 +4209,28 @@
         <v>2</v>
       </c>
       <c r="AH8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AJ8">
         <v>2</v>
       </c>
       <c r="AK8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AM8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN8">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO8">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP8">
         <v>0</v>
@@ -4251,79 +4257,79 @@
         <v>344</v>
       </c>
       <c r="AX8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AY8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AZ8" t="s">
-        <v>426</v>
+        <v>285</v>
       </c>
       <c r="BA8" t="s">
         <v>322</v>
       </c>
       <c r="BB8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BC8" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="BD8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="BE8" t="s">
         <v>340</v>
       </c>
       <c r="BF8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BG8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="BH8">
-        <v>120.8</v>
+        <v>120.3</v>
       </c>
       <c r="BI8">
-        <v>117.2</v>
+        <v>117.3</v>
       </c>
       <c r="BJ8">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="BK8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="BL8" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="BM8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="BN8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="BO8" t="s">
         <v>192</v>
       </c>
       <c r="BP8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="BQ8" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="BR8" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="BS8" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="CB8" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="CC8" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="CD8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="CE8" t="s">
         <v>245</v>
@@ -4338,22 +4344,22 @@
         <v>320</v>
       </c>
       <c r="CI8">
-        <v>4106</v>
+        <v>4212</v>
       </c>
       <c r="CJ8">
-        <v>3986</v>
+        <v>4104</v>
       </c>
       <c r="CK8">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="CL8">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="CN8">
         <v>0</v>
       </c>
       <c r="CO8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -4418,19 +4424,19 @@
         <v>294</v>
       </c>
       <c r="V9" t="s">
+        <v>312</v>
+      </c>
+      <c r="W9" t="s">
+        <v>312</v>
+      </c>
+      <c r="X9" t="s">
         <v>310</v>
-      </c>
-      <c r="W9" t="s">
-        <v>310</v>
-      </c>
-      <c r="X9" t="s">
-        <v>312</v>
       </c>
       <c r="Y9" t="s">
         <v>320</v>
       </c>
       <c r="Z9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA9" t="s">
         <v>342</v>
@@ -4463,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="AK9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL9">
         <v>1</v>
@@ -4502,13 +4508,13 @@
         <v>302</v>
       </c>
       <c r="AX9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AY9" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AZ9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="BA9" t="s">
         <v>335</v>
@@ -4517,19 +4523,19 @@
         <v>187</v>
       </c>
       <c r="BC9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="BD9" t="s">
         <v>302</v>
       </c>
       <c r="BE9" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="BF9" t="s">
         <v>187</v>
       </c>
       <c r="BG9" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="BH9">
         <v>105.2</v>
@@ -4544,37 +4550,37 @@
         <v>193</v>
       </c>
       <c r="BL9" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="BM9" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="BN9" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="BO9" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="BP9" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="BQ9" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="BR9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="BS9" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="CB9" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="CC9" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="CD9" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="CE9" t="s">
         <v>246</v>
@@ -4604,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="CO9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -4618,7 +4624,7 @@
         <v>93</v>
       </c>
       <c r="D10">
-        <v>1610612749</v>
+        <v>1610612742</v>
       </c>
       <c r="E10" t="s">
         <v>102</v>
@@ -4630,7 +4636,7 @@
         <v>162</v>
       </c>
       <c r="H10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I10" t="s">
         <v>194</v>
@@ -4639,25 +4645,25 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P10">
         <v>16</v>
       </c>
       <c r="Q10">
-        <v>0.529</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S10" t="s">
         <v>247</v>
@@ -4666,55 +4672,55 @@
         <v>272</v>
       </c>
       <c r="U10" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="V10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="W10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X10" t="s">
         <v>312</v>
       </c>
       <c r="Y10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Z10" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AA10" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="AB10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AD10">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AF10">
         <v>7</v>
       </c>
       <c r="AG10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH10">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AJ10">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="AK10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AL10">
         <v>1</v>
@@ -4723,10 +4729,10 @@
         <v>370</v>
       </c>
       <c r="AN10">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AO10">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -4750,82 +4756,82 @@
         <v>381</v>
       </c>
       <c r="AW10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AX10" t="s">
         <v>320</v>
       </c>
       <c r="AY10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AZ10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BA10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="BB10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BC10" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="BD10" t="s">
-        <v>488</v>
+        <v>197</v>
       </c>
       <c r="BE10" t="s">
-        <v>502</v>
+        <v>339</v>
       </c>
       <c r="BF10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="BG10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="BH10">
-        <v>112.7</v>
+        <v>116.4</v>
       </c>
       <c r="BI10">
-        <v>111</v>
+        <v>111.9</v>
       </c>
       <c r="BJ10">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="BK10" t="s">
+        <v>539</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>560</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>564</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>557</v>
+      </c>
+      <c r="BO10" t="s">
         <v>194</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BP10" t="s">
         <v>538</v>
       </c>
-      <c r="BM10" t="s">
-        <v>577</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>591</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>565</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>581</v>
-      </c>
       <c r="BQ10" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
       <c r="BR10" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="BS10" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="CB10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="CC10" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="CD10" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="CE10" t="s">
         <v>247</v>
@@ -4840,22 +4846,22 @@
         <v>320</v>
       </c>
       <c r="CI10">
-        <v>3833</v>
+        <v>4308</v>
       </c>
       <c r="CJ10">
-        <v>3774</v>
+        <v>4139</v>
       </c>
       <c r="CK10">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="CL10">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="CN10">
         <v>0</v>
       </c>
       <c r="CO10" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -4869,7 +4875,7 @@
         <v>93</v>
       </c>
       <c r="D11">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="E11" t="s">
         <v>103</v>
@@ -4881,7 +4887,7 @@
         <v>163</v>
       </c>
       <c r="H11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I11" t="s">
         <v>195</v>
@@ -4890,82 +4896,82 @@
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P11">
         <v>16</v>
       </c>
       <c r="Q11">
-        <v>0.5679999999999999</v>
+        <v>0.529</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S11" t="s">
         <v>248</v>
       </c>
       <c r="T11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="U11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="V11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X11" t="s">
         <v>310</v>
       </c>
       <c r="Y11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Z11" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AA11" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="AB11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AD11">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="AE11" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AF11">
         <v>7</v>
       </c>
       <c r="AG11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AI11" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="AJ11">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="AK11" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="AL11">
         <v>1</v>
@@ -4974,10 +4980,10 @@
         <v>370</v>
       </c>
       <c r="AN11">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AO11">
-        <v>3.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -5001,82 +5007,82 @@
         <v>382</v>
       </c>
       <c r="AW11" t="s">
-        <v>288</v>
+        <v>399</v>
       </c>
       <c r="AX11" t="s">
         <v>320</v>
       </c>
       <c r="AY11" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AZ11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BA11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="BB11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="BC11" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="BD11" t="s">
-        <v>202</v>
+        <v>490</v>
       </c>
       <c r="BE11" t="s">
-        <v>341</v>
+        <v>505</v>
       </c>
       <c r="BF11" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="BG11" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="BH11">
-        <v>116.4</v>
+        <v>112.7</v>
       </c>
       <c r="BI11">
-        <v>111.9</v>
+        <v>111</v>
       </c>
       <c r="BJ11">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="BK11" t="s">
-        <v>537</v>
+        <v>195</v>
       </c>
       <c r="BL11" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="BM11" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="BN11" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
       <c r="BO11" t="s">
-        <v>195</v>
+        <v>567</v>
       </c>
       <c r="BP11" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="BQ11" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="BR11" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="BS11" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="CB11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="CC11" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="CD11" t="s">
-        <v>627</v>
+        <v>538</v>
       </c>
       <c r="CE11" t="s">
         <v>248</v>
@@ -5091,22 +5097,22 @@
         <v>320</v>
       </c>
       <c r="CI11">
-        <v>4308</v>
+        <v>3833</v>
       </c>
       <c r="CJ11">
-        <v>4139</v>
+        <v>3774</v>
       </c>
       <c r="CK11">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="CL11">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="CN11">
         <v>0</v>
       </c>
       <c r="CO11" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:93">
@@ -5120,7 +5126,7 @@
         <v>93</v>
       </c>
       <c r="D12">
-        <v>1610612754</v>
+        <v>1610612747</v>
       </c>
       <c r="E12" t="s">
         <v>104</v>
@@ -5132,7 +5138,7 @@
         <v>164</v>
       </c>
       <c r="H12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I12" t="s">
         <v>196</v>
@@ -5141,91 +5147,91 @@
         <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M12" t="s">
         <v>225</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q12">
-        <v>0.514</v>
+        <v>0.556</v>
       </c>
       <c r="S12" t="s">
         <v>249</v>
       </c>
       <c r="T12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U12" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="V12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W12" t="s">
         <v>312</v>
       </c>
       <c r="X12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z12" t="s">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="AA12" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AB12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AD12">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="AE12" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF12">
+        <v>6</v>
+      </c>
+      <c r="AG12">
+        <v>3</v>
+      </c>
+      <c r="AH12">
+        <v>2</v>
+      </c>
+      <c r="AI12" t="s">
         <v>367</v>
       </c>
-      <c r="AF12">
-        <v>5</v>
-      </c>
-      <c r="AG12">
-        <v>4</v>
-      </c>
-      <c r="AH12">
-        <v>1</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>370</v>
-      </c>
       <c r="AJ12">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="AK12" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="AL12">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="AM12" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="AN12">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AO12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -5246,16 +5252,16 @@
         <v>0</v>
       </c>
       <c r="AV12" t="s">
-        <v>271</v>
+        <v>383</v>
       </c>
       <c r="AW12" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AX12" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="AY12" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AZ12" t="s">
         <v>305</v>
@@ -5264,67 +5270,67 @@
         <v>320</v>
       </c>
       <c r="BB12" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="BC12" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="BD12" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BE12" t="s">
-        <v>291</v>
+        <v>506</v>
       </c>
       <c r="BF12" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="BG12" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="BH12">
-        <v>115.2</v>
+        <v>111.8</v>
       </c>
       <c r="BI12">
-        <v>116.1</v>
+        <v>114</v>
       </c>
       <c r="BJ12">
-        <v>-0.8</v>
+        <v>-2.1</v>
       </c>
       <c r="BK12" t="s">
-        <v>196</v>
+        <v>540</v>
       </c>
       <c r="BL12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="BM12" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="BN12" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="BO12" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="BP12" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="BQ12" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="BR12" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="BS12" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="CB12" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="CC12" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="CD12" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="CE12" t="s">
         <v>249</v>
@@ -5339,22 +5345,22 @@
         <v>320</v>
       </c>
       <c r="CI12">
-        <v>4264</v>
+        <v>4026</v>
       </c>
       <c r="CJ12">
-        <v>4295</v>
+        <v>4103</v>
       </c>
       <c r="CK12">
-        <v>-31</v>
+        <v>-77</v>
       </c>
       <c r="CL12">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="CN12">
         <v>0</v>
       </c>
       <c r="CO12" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -5368,7 +5374,7 @@
         <v>93</v>
       </c>
       <c r="D13">
-        <v>1610612747</v>
+        <v>1610612748</v>
       </c>
       <c r="E13" t="s">
         <v>105</v>
@@ -5380,7 +5386,7 @@
         <v>165</v>
       </c>
       <c r="H13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I13" t="s">
         <v>197</v>
@@ -5389,28 +5395,28 @@
         <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q13">
-        <v>0.556</v>
+        <v>0.514</v>
       </c>
       <c r="S13" t="s">
         <v>250</v>
       </c>
       <c r="T13" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="U13" t="s">
         <v>297</v>
@@ -5419,25 +5425,25 @@
         <v>312</v>
       </c>
       <c r="W13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X13" t="s">
         <v>313</v>
       </c>
       <c r="Y13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z13" t="s">
-        <v>225</v>
+        <v>333</v>
       </c>
       <c r="AA13" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="AB13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC13" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AD13">
         <v>-4</v>
@@ -5446,34 +5452,34 @@
         <v>360</v>
       </c>
       <c r="AF13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG13">
         <v>3</v>
       </c>
       <c r="AH13">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AI13" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AJ13">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AK13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AL13">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AM13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AN13">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -5494,85 +5500,85 @@
         <v>0</v>
       </c>
       <c r="AV13" t="s">
-        <v>383</v>
+        <v>291</v>
       </c>
       <c r="AW13" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AX13" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AY13" t="s">
-        <v>416</v>
+        <v>338</v>
       </c>
       <c r="AZ13" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="BA13" t="s">
         <v>320</v>
       </c>
       <c r="BB13" t="s">
-        <v>446</v>
+        <v>202</v>
       </c>
       <c r="BC13" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="BD13" t="s">
+        <v>283</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>415</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>516</v>
+      </c>
+      <c r="BG13" t="s">
         <v>302</v>
       </c>
-      <c r="BE13" t="s">
-        <v>503</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>513</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>200</v>
-      </c>
       <c r="BH13">
-        <v>111.8</v>
+        <v>111.3</v>
       </c>
       <c r="BI13">
-        <v>114</v>
+        <v>110.1</v>
       </c>
       <c r="BJ13">
-        <v>-2.1</v>
+        <v>1.2</v>
       </c>
       <c r="BK13" t="s">
-        <v>538</v>
+        <v>197</v>
       </c>
       <c r="BL13" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="BM13" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="BN13" t="s">
-        <v>592</v>
+        <v>561</v>
       </c>
       <c r="BO13" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="BP13" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="BQ13" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="BR13" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="BS13" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="CB13" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="CC13" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="CD13" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="CE13" t="s">
         <v>250</v>
@@ -5587,22 +5593,22 @@
         <v>320</v>
       </c>
       <c r="CI13">
-        <v>4026</v>
+        <v>3897</v>
       </c>
       <c r="CJ13">
-        <v>4103</v>
+        <v>3854</v>
       </c>
       <c r="CK13">
-        <v>-77</v>
+        <v>43</v>
       </c>
       <c r="CL13">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="CN13">
         <v>0</v>
       </c>
       <c r="CO13" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:93">
@@ -5616,7 +5622,7 @@
         <v>93</v>
       </c>
       <c r="D14">
-        <v>1610612746</v>
+        <v>1610612737</v>
       </c>
       <c r="E14" t="s">
         <v>106</v>
@@ -5628,7 +5634,7 @@
         <v>166</v>
       </c>
       <c r="H14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I14" t="s">
         <v>198</v>
@@ -5637,28 +5643,31 @@
         <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q14">
-        <v>0.556</v>
+        <v>0.514</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
       </c>
       <c r="S14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T14" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="U14" t="s">
         <v>298</v>
@@ -5667,37 +5676,37 @@
         <v>312</v>
       </c>
       <c r="W14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="X14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Y14" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Z14" t="s">
-        <v>333</v>
+        <v>227</v>
       </c>
       <c r="AA14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AB14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AC14" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AD14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH14">
         <v>3</v>
@@ -5706,22 +5715,22 @@
         <v>359</v>
       </c>
       <c r="AJ14">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AK14" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AL14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AN14">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AP14">
         <v>0</v>
@@ -5742,91 +5751,91 @@
         <v>0</v>
       </c>
       <c r="AV14" t="s">
-        <v>268</v>
+        <v>346</v>
       </c>
       <c r="AW14" t="s">
-        <v>399</v>
+        <v>294</v>
       </c>
       <c r="AX14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>380</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>431</v>
+      </c>
+      <c r="BA14" t="s">
         <v>335</v>
       </c>
-      <c r="AY14" t="s">
-        <v>417</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>430</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>320</v>
-      </c>
       <c r="BB14" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="BC14" t="s">
-        <v>467</v>
+        <v>251</v>
       </c>
       <c r="BD14" t="s">
-        <v>196</v>
+        <v>491</v>
       </c>
       <c r="BE14" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="BF14" t="s">
-        <v>381</v>
+        <v>517</v>
       </c>
       <c r="BG14" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="BH14">
-        <v>109.1</v>
+        <v>117.3</v>
       </c>
       <c r="BI14">
-        <v>107.9</v>
+        <v>119.8</v>
       </c>
       <c r="BJ14">
-        <v>1.2</v>
+        <v>-2.5</v>
       </c>
       <c r="BK14" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="BL14" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="BM14" t="s">
         <v>578</v>
       </c>
       <c r="BN14" t="s">
-        <v>553</v>
+        <v>594</v>
       </c>
       <c r="BO14" t="s">
-        <v>198</v>
+        <v>607</v>
       </c>
       <c r="BP14" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="BQ14" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="BR14" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="BS14" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="CB14" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="CC14" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="CD14" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="CE14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CF14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CG14" t="s">
         <v>320</v>
@@ -5835,22 +5844,22 @@
         <v>320</v>
       </c>
       <c r="CI14">
-        <v>3927</v>
+        <v>4340</v>
       </c>
       <c r="CJ14">
-        <v>3885</v>
+        <v>4431</v>
       </c>
       <c r="CK14">
-        <v>42</v>
+        <v>-91</v>
       </c>
       <c r="CL14">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="CN14">
         <v>0</v>
       </c>
       <c r="CO14" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:93">
@@ -5864,7 +5873,7 @@
         <v>93</v>
       </c>
       <c r="D15">
-        <v>1610612765</v>
+        <v>1610612746</v>
       </c>
       <c r="E15" t="s">
         <v>107</v>
@@ -5876,7 +5885,7 @@
         <v>167</v>
       </c>
       <c r="H15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I15" t="s">
         <v>199</v>
@@ -5885,55 +5894,55 @@
         <v>7</v>
       </c>
       <c r="L15" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O15">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q15">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
       <c r="S15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="U15" t="s">
         <v>299</v>
       </c>
       <c r="V15" t="s">
+        <v>310</v>
+      </c>
+      <c r="W15" t="s">
         <v>314</v>
       </c>
-      <c r="W15" t="s">
-        <v>312</v>
-      </c>
       <c r="X15" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Y15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Z15" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="AA15" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="AB15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AD15">
         <v>3</v>
@@ -5942,34 +5951,34 @@
         <v>359</v>
       </c>
       <c r="AF15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AJ15">
+        <v>-3</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL15">
         <v>-1</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AM15" t="s">
         <v>371</v>
       </c>
-      <c r="AL15">
-        <v>4</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>358</v>
-      </c>
       <c r="AN15">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO15">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AP15">
         <v>0</v>
@@ -5990,91 +5999,91 @@
         <v>0</v>
       </c>
       <c r="AV15" t="s">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="AW15" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="AX15" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="AY15" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="AZ15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BA15" t="s">
         <v>320</v>
       </c>
       <c r="BB15" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="BC15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="BD15" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="BE15" t="s">
-        <v>271</v>
+        <v>508</v>
       </c>
       <c r="BF15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="BG15" t="s">
-        <v>274</v>
+        <v>384</v>
       </c>
       <c r="BH15">
-        <v>112</v>
+        <v>109.1</v>
       </c>
       <c r="BI15">
-        <v>113.8</v>
+        <v>107.9</v>
       </c>
       <c r="BJ15">
-        <v>-1.8</v>
+        <v>1.2</v>
       </c>
       <c r="BK15" t="s">
-        <v>199</v>
+        <v>542</v>
       </c>
       <c r="BL15" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="BM15" t="s">
         <v>579</v>
       </c>
       <c r="BN15" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="BO15" t="s">
-        <v>550</v>
+        <v>199</v>
       </c>
       <c r="BP15" t="s">
-        <v>565</v>
+        <v>614</v>
       </c>
       <c r="BQ15" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="BR15" t="s">
-        <v>582</v>
+        <v>545</v>
       </c>
       <c r="BS15" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="CB15" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="CC15" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="CD15" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="CE15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="CF15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="CG15" t="s">
         <v>320</v>
@@ -6083,22 +6092,22 @@
         <v>320</v>
       </c>
       <c r="CI15">
-        <v>4031</v>
+        <v>3927</v>
       </c>
       <c r="CJ15">
-        <v>4095</v>
+        <v>3885</v>
       </c>
       <c r="CK15">
-        <v>-64</v>
+        <v>42</v>
       </c>
       <c r="CL15">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="CN15">
         <v>0</v>
       </c>
       <c r="CO15" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -6112,7 +6121,7 @@
         <v>93</v>
       </c>
       <c r="D16">
-        <v>1610612737</v>
+        <v>1610612750</v>
       </c>
       <c r="E16" t="s">
         <v>108</v>
@@ -6124,7 +6133,7 @@
         <v>168</v>
       </c>
       <c r="H16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I16" t="s">
         <v>200</v>
@@ -6133,52 +6142,49 @@
         <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q16">
-        <v>0.5</v>
-      </c>
-      <c r="R16">
-        <v>3</v>
+        <v>0.528</v>
       </c>
       <c r="S16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="U16" t="s">
         <v>298</v>
       </c>
       <c r="V16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X16" t="s">
         <v>310</v>
       </c>
       <c r="Y16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z16" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="AA16" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AB16">
         <v>3</v>
@@ -6187,40 +6193,40 @@
         <v>359</v>
       </c>
       <c r="AD16">
+        <v>2</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF16">
         <v>4</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>358</v>
-      </c>
-      <c r="AF16">
-        <v>6</v>
       </c>
       <c r="AG16">
         <v>4</v>
       </c>
       <c r="AH16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AJ16">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AL16">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="AM16" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AN16">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO16">
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="AP16">
         <v>0</v>
@@ -6241,91 +6247,91 @@
         <v>0</v>
       </c>
       <c r="AV16" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="AW16" t="s">
-        <v>294</v>
+        <v>401</v>
       </c>
       <c r="AX16" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AY16" t="s">
-        <v>418</v>
+        <v>269</v>
       </c>
       <c r="AZ16" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="BA16" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="BB16" t="s">
-        <v>247</v>
+        <v>453</v>
       </c>
       <c r="BC16" t="s">
-        <v>251</v>
+        <v>473</v>
       </c>
       <c r="BD16" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="BE16" t="s">
-        <v>505</v>
+        <v>415</v>
       </c>
       <c r="BF16" t="s">
-        <v>514</v>
+        <v>292</v>
       </c>
       <c r="BG16" t="s">
-        <v>284</v>
+        <v>527</v>
       </c>
       <c r="BH16">
-        <v>117.1</v>
+        <v>109.1</v>
       </c>
       <c r="BI16">
-        <v>119.7</v>
+        <v>107.7</v>
       </c>
       <c r="BJ16">
-        <v>-2.6</v>
+        <v>1.4</v>
       </c>
       <c r="BK16" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="BL16" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="BM16" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="BN16" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="BO16" t="s">
-        <v>604</v>
+        <v>200</v>
       </c>
       <c r="BP16" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="BQ16" t="s">
-        <v>585</v>
+        <v>535</v>
       </c>
       <c r="BR16" t="s">
-        <v>547</v>
+        <v>596</v>
       </c>
       <c r="BS16" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="CB16" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="CC16" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="CD16" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="CE16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="CF16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="CG16" t="s">
         <v>320</v>
@@ -6334,22 +6340,22 @@
         <v>320</v>
       </c>
       <c r="CI16">
-        <v>4216</v>
+        <v>3926</v>
       </c>
       <c r="CJ16">
-        <v>4310</v>
+        <v>3876</v>
       </c>
       <c r="CK16">
-        <v>-94</v>
+        <v>50</v>
       </c>
       <c r="CL16">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="CN16">
         <v>0</v>
       </c>
       <c r="CO16" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:93">
@@ -6363,7 +6369,7 @@
         <v>93</v>
       </c>
       <c r="D17">
-        <v>1610612744</v>
+        <v>1610612754</v>
       </c>
       <c r="E17" t="s">
         <v>109</v>
@@ -6375,7 +6381,7 @@
         <v>169</v>
       </c>
       <c r="H17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I17" t="s">
         <v>201</v>
@@ -6384,94 +6390,91 @@
         <v>8</v>
       </c>
       <c r="L17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N17">
         <v>3</v>
       </c>
       <c r="O17">
+        <v>19</v>
+      </c>
+      <c r="P17">
         <v>18</v>
-      </c>
-      <c r="P17">
-        <v>17</v>
       </c>
       <c r="Q17">
         <v>0.514</v>
       </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
       <c r="S17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="U17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="V17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="X17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y17" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z17" t="s">
         <v>322</v>
       </c>
-      <c r="Z17" t="s">
-        <v>327</v>
-      </c>
       <c r="AA17" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AB17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AD17">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="AE17" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="AF17">
         <v>5</v>
       </c>
       <c r="AG17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AK17" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AL17">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AM17" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AN17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO17">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="AP17">
         <v>0</v>
@@ -6492,91 +6495,91 @@
         <v>0</v>
       </c>
       <c r="AV17" t="s">
-        <v>385</v>
+        <v>271</v>
       </c>
       <c r="AW17" t="s">
-        <v>289</v>
+        <v>392</v>
       </c>
       <c r="AX17" t="s">
-        <v>324</v>
+        <v>222</v>
       </c>
       <c r="AY17" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AZ17" t="s">
-        <v>433</v>
+        <v>305</v>
       </c>
       <c r="BA17" t="s">
         <v>320</v>
       </c>
       <c r="BB17" t="s">
-        <v>191</v>
+        <v>454</v>
       </c>
       <c r="BC17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="BD17" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="BE17" t="s">
-        <v>506</v>
+        <v>388</v>
       </c>
       <c r="BF17" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="BG17" t="s">
-        <v>523</v>
+        <v>270</v>
       </c>
       <c r="BH17">
-        <v>112.2</v>
+        <v>115.2</v>
       </c>
       <c r="BI17">
-        <v>111</v>
+        <v>116.1</v>
       </c>
       <c r="BJ17">
-        <v>1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="BK17" t="s">
-        <v>541</v>
+        <v>201</v>
       </c>
       <c r="BL17" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="BM17" t="s">
+        <v>549</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>545</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>608</v>
+      </c>
+      <c r="BP17" t="s">
         <v>580</v>
       </c>
-      <c r="BN17" t="s">
-        <v>557</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>201</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>594</v>
-      </c>
       <c r="BQ17" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="BR17" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="BS17" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="CB17" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="CC17" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="CD17" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="CE17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CF17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CG17" t="s">
         <v>320</v>
@@ -6585,13 +6588,13 @@
         <v>320</v>
       </c>
       <c r="CI17">
-        <v>3927</v>
+        <v>4264</v>
       </c>
       <c r="CJ17">
-        <v>3885</v>
+        <v>4295</v>
       </c>
       <c r="CK17">
-        <v>42</v>
+        <v>-31</v>
       </c>
       <c r="CL17">
         <v>13</v>
@@ -6600,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="CO17" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:93">
@@ -6614,7 +6617,7 @@
         <v>93</v>
       </c>
       <c r="D18">
-        <v>1610612748</v>
+        <v>1610612759</v>
       </c>
       <c r="E18" t="s">
         <v>110</v>
@@ -6626,7 +6629,7 @@
         <v>170</v>
       </c>
       <c r="H18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I18" t="s">
         <v>202</v>
@@ -6635,19 +6638,19 @@
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M18" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q18">
         <v>0.5</v>
@@ -6656,40 +6659,40 @@
         <v>253</v>
       </c>
       <c r="T18" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="U18" t="s">
         <v>300</v>
       </c>
       <c r="V18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Y18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Z18" t="s">
-        <v>334</v>
+        <v>223</v>
       </c>
       <c r="AA18" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="AB18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC18" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AD18">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AE18" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF18">
         <v>4</v>
@@ -6698,10 +6701,10 @@
         <v>3</v>
       </c>
       <c r="AH18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AJ18">
         <v>-1</v>
@@ -6710,16 +6713,16 @@
         <v>371</v>
       </c>
       <c r="AL18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AM18" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="AN18">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AP18">
         <v>0</v>
@@ -6740,85 +6743,85 @@
         <v>0</v>
       </c>
       <c r="AV18" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="AW18" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AX18" t="s">
-        <v>320</v>
+        <v>411</v>
       </c>
       <c r="AY18" t="s">
         <v>290</v>
       </c>
       <c r="AZ18" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="BA18" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="BB18" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="BC18" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="BD18" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="BE18" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="BF18" t="s">
-        <v>516</v>
+        <v>343</v>
       </c>
       <c r="BG18" t="s">
-        <v>524</v>
+        <v>386</v>
       </c>
       <c r="BH18">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="BI18">
-        <v>110.5</v>
+        <v>111.5</v>
       </c>
       <c r="BJ18">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="BK18" t="s">
-        <v>202</v>
+        <v>544</v>
       </c>
       <c r="BL18" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="BM18" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="BN18" t="s">
         <v>560</v>
       </c>
       <c r="BO18" t="s">
-        <v>605</v>
+        <v>202</v>
       </c>
       <c r="BP18" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="BQ18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="BR18" t="s">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="BS18" t="s">
-        <v>592</v>
+        <v>564</v>
       </c>
       <c r="CB18" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="CC18" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="CD18" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="CE18" t="s">
         <v>253</v>
@@ -6833,13 +6836,13 @@
         <v>320</v>
       </c>
       <c r="CI18">
-        <v>3783</v>
+        <v>4012</v>
       </c>
       <c r="CJ18">
-        <v>3756</v>
+        <v>4015</v>
       </c>
       <c r="CK18">
-        <v>27</v>
+        <v>-3</v>
       </c>
       <c r="CL18">
         <v>13.5</v>
@@ -6848,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="CO18" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:93">
@@ -6862,7 +6865,7 @@
         <v>93</v>
       </c>
       <c r="D19">
-        <v>1610612750</v>
+        <v>1610612765</v>
       </c>
       <c r="E19" t="s">
         <v>111</v>
@@ -6874,7 +6877,7 @@
         <v>171</v>
       </c>
       <c r="H19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I19" t="s">
         <v>203</v>
@@ -6883,61 +6886,61 @@
         <v>9</v>
       </c>
       <c r="L19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O19">
         <v>18</v>
       </c>
       <c r="P19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q19">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="S19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T19" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="U19" t="s">
         <v>298</v>
       </c>
       <c r="V19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W19" t="s">
         <v>310</v>
       </c>
       <c r="X19" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Y19" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Z19" t="s">
         <v>311</v>
       </c>
       <c r="AA19" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="AB19">
+        <v>4</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD19">
         <v>3</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AE19" t="s">
         <v>359</v>
-      </c>
-      <c r="AD19">
-        <v>2</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>366</v>
       </c>
       <c r="AF19">
         <v>4</v>
@@ -6946,28 +6949,28 @@
         <v>4</v>
       </c>
       <c r="AH19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI19" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AJ19">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM19" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AN19">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AO19">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -6988,91 +6991,91 @@
         <v>0</v>
       </c>
       <c r="AV19" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="AW19" t="s">
-        <v>400</v>
+        <v>288</v>
       </c>
       <c r="AX19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AY19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AZ19" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="BA19" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="BB19" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="BC19" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="BD19" t="s">
-        <v>490</v>
+        <v>302</v>
       </c>
       <c r="BE19" t="s">
-        <v>385</v>
+        <v>271</v>
       </c>
       <c r="BF19" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="BG19" t="s">
-        <v>525</v>
+        <v>275</v>
       </c>
       <c r="BH19">
-        <v>109.2</v>
+        <v>112</v>
       </c>
       <c r="BI19">
-        <v>108</v>
+        <v>113.8</v>
       </c>
       <c r="BJ19">
-        <v>1.2</v>
+        <v>-1.8</v>
       </c>
       <c r="BK19" t="s">
-        <v>542</v>
+        <v>203</v>
       </c>
       <c r="BL19" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="BM19" t="s">
+        <v>582</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>595</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>595</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>567</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>591</v>
+      </c>
+      <c r="BR19" t="s">
         <v>581</v>
       </c>
-      <c r="BN19" t="s">
-        <v>563</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>203</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>547</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>533</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>560</v>
-      </c>
       <c r="BS19" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="CB19" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="CC19" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="CD19" t="s">
-        <v>627</v>
+        <v>546</v>
       </c>
       <c r="CE19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CF19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CG19" t="s">
         <v>320</v>
@@ -7081,22 +7084,22 @@
         <v>320</v>
       </c>
       <c r="CI19">
-        <v>3822</v>
+        <v>4031</v>
       </c>
       <c r="CJ19">
-        <v>3779</v>
+        <v>4095</v>
       </c>
       <c r="CK19">
-        <v>43</v>
+        <v>-64</v>
       </c>
       <c r="CL19">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="CN19">
         <v>0</v>
       </c>
       <c r="CO19" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:93">
@@ -7152,19 +7155,19 @@
         <v>254</v>
       </c>
       <c r="T20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V20" t="s">
+        <v>310</v>
+      </c>
+      <c r="W20" t="s">
         <v>312</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>310</v>
-      </c>
-      <c r="X20" t="s">
-        <v>312</v>
       </c>
       <c r="Y20" t="s">
         <v>322</v>
@@ -7209,7 +7212,7 @@
         <v>2</v>
       </c>
       <c r="AM20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN20">
         <v>14.5</v>
@@ -7239,13 +7242,13 @@
         <v>386</v>
       </c>
       <c r="AW20" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AX20" t="s">
         <v>324</v>
       </c>
       <c r="AY20" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AZ20" t="s">
         <v>434</v>
@@ -7254,22 +7257,22 @@
         <v>324</v>
       </c>
       <c r="BB20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BC20" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="BD20" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="BE20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BF20" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="BG20" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="BH20">
         <v>117.8</v>
@@ -7284,37 +7287,37 @@
         <v>204</v>
       </c>
       <c r="BL20" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="BM20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="BN20" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="BO20" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="BP20" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="BQ20" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="BR20" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="BS20" t="s">
+        <v>566</v>
+      </c>
+      <c r="CB20" t="s">
         <v>559</v>
       </c>
-      <c r="CB20" t="s">
-        <v>564</v>
-      </c>
       <c r="CC20" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="CD20" t="s">
-        <v>611</v>
+        <v>538</v>
       </c>
       <c r="CE20" t="s">
         <v>254</v>
@@ -7344,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="CO20" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:93">
@@ -7358,7 +7361,7 @@
         <v>93</v>
       </c>
       <c r="D21">
-        <v>1610612759</v>
+        <v>1610612744</v>
       </c>
       <c r="E21" t="s">
         <v>113</v>
@@ -7379,13 +7382,13 @@
         <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s">
         <v>232</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <v>18</v>
@@ -7396,56 +7399,59 @@
       <c r="Q21">
         <v>0.5</v>
       </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
       <c r="S21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U21" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="V21" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="W21" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="X21" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Y21" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z21" t="s">
         <v>325</v>
       </c>
-      <c r="Z21" t="s">
-        <v>223</v>
-      </c>
       <c r="AA21" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AB21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AD21">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AF21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH21">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AJ21">
         <v>-1</v>
@@ -7463,7 +7469,7 @@
         <v>12.5</v>
       </c>
       <c r="AO21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AP21">
         <v>0</v>
@@ -7487,88 +7493,88 @@
         <v>387</v>
       </c>
       <c r="AW21" t="s">
-        <v>402</v>
+        <v>288</v>
       </c>
       <c r="AX21" t="s">
-        <v>408</v>
+        <v>324</v>
       </c>
       <c r="AY21" t="s">
-        <v>290</v>
+        <v>419</v>
       </c>
       <c r="AZ21" t="s">
-        <v>402</v>
+        <v>306</v>
       </c>
       <c r="BA21" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="BB21" t="s">
-        <v>447</v>
+        <v>190</v>
       </c>
       <c r="BC21" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="BD21" t="s">
-        <v>298</v>
+        <v>494</v>
       </c>
       <c r="BE21" t="s">
-        <v>341</v>
+        <v>509</v>
       </c>
       <c r="BF21" t="s">
-        <v>270</v>
+        <v>520</v>
       </c>
       <c r="BG21" t="s">
-        <v>386</v>
+        <v>529</v>
       </c>
       <c r="BH21">
-        <v>111.4</v>
+        <v>111.8</v>
       </c>
       <c r="BI21">
-        <v>111.5</v>
+        <v>111.1</v>
       </c>
       <c r="BJ21">
-        <v>-0.1</v>
+        <v>0.7</v>
       </c>
       <c r="BK21" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="BL21" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="BM21" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="BN21" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="BO21" t="s">
         <v>205</v>
       </c>
       <c r="BP21" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
       <c r="BQ21" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="BR21" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="BS21" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="CB21" t="s">
-        <v>547</v>
+        <v>577</v>
       </c>
       <c r="CC21" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="CD21" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="CE21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CF21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CG21" t="s">
         <v>320</v>
@@ -7577,13 +7583,13 @@
         <v>320</v>
       </c>
       <c r="CI21">
-        <v>4012</v>
+        <v>4025</v>
       </c>
       <c r="CJ21">
-        <v>4015</v>
+        <v>3999</v>
       </c>
       <c r="CK21">
-        <v>-3</v>
+        <v>26</v>
       </c>
       <c r="CL21">
         <v>13.5</v>
@@ -7592,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="CO21" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:93">
@@ -7621,7 +7627,7 @@
         <v>184</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J22">
         <v>11</v>
@@ -7648,13 +7654,13 @@
         <v>255</v>
       </c>
       <c r="T22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="V22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="W22" t="s">
         <v>313</v>
@@ -7669,7 +7675,7 @@
         <v>321</v>
       </c>
       <c r="AA22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB22">
         <v>-3</v>
@@ -7711,7 +7717,7 @@
         <v>16.5</v>
       </c>
       <c r="AO22">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AP22">
         <v>0</v>
@@ -7732,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="AV22" t="s">
-        <v>291</v>
+        <v>388</v>
       </c>
       <c r="AW22" t="s">
         <v>308</v>
@@ -7741,7 +7747,7 @@
         <v>330</v>
       </c>
       <c r="AY22" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AZ22" t="s">
         <v>435</v>
@@ -7753,19 +7759,19 @@
         <v>204</v>
       </c>
       <c r="BC22" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="BD22" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="BE22" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="BF22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BG22" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="BH22">
         <v>107.4</v>
@@ -7777,37 +7783,37 @@
         <v>-3.3</v>
       </c>
       <c r="BK22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BL22" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="BM22" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="BN22" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="BO22" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="BP22" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="BQ22" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="BR22" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="BS22" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="CB22" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="CC22" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="CD22" t="s">
         <v>590</v>
@@ -7840,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="CO22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:93">
@@ -7896,28 +7902,28 @@
         <v>256</v>
       </c>
       <c r="T23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U23" t="s">
         <v>301</v>
       </c>
       <c r="V23" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="W23" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="X23" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Y23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AA23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AB23">
         <v>-5</v>
@@ -7929,7 +7935,7 @@
         <v>2</v>
       </c>
       <c r="AE23" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF23">
         <v>5</v>
@@ -7983,37 +7989,37 @@
         <v>271</v>
       </c>
       <c r="AW23" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AX23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AY23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AZ23" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="BA23" t="s">
         <v>328</v>
       </c>
       <c r="BB23" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="BC23" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="BD23" t="s">
         <v>294</v>
       </c>
       <c r="BE23" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="BF23" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="BG23" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="BH23">
         <v>116</v>
@@ -8025,40 +8031,40 @@
         <v>2.2</v>
       </c>
       <c r="BK23" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="BL23" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="BM23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BN23" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="BO23" t="s">
         <v>206</v>
       </c>
       <c r="BP23" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="BQ23" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="BR23" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="BS23" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="CB23" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="CC23" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="CD23" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="CE23" t="s">
         <v>256</v>
@@ -8088,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="CO23" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:93">
@@ -8144,7 +8150,7 @@
         <v>257</v>
       </c>
       <c r="T24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U24" t="s">
         <v>302</v>
@@ -8156,16 +8162,16 @@
         <v>316</v>
       </c>
       <c r="X24" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Y24" t="s">
         <v>328</v>
       </c>
       <c r="Z24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AA24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AB24">
         <v>-6</v>
@@ -8207,7 +8213,7 @@
         <v>18.5</v>
       </c>
       <c r="AO24">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP24">
         <v>0</v>
@@ -8228,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="AV24" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AW24" t="s">
         <v>304</v>
@@ -8237,7 +8243,7 @@
         <v>329</v>
       </c>
       <c r="AY24" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AZ24" t="s">
         <v>210</v>
@@ -8246,13 +8252,13 @@
         <v>329</v>
       </c>
       <c r="BB24" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="BC24" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="BD24" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="BE24" t="s">
         <v>221</v>
@@ -8261,7 +8267,7 @@
         <v>224</v>
       </c>
       <c r="BG24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BH24">
         <v>107.5</v>
@@ -8273,40 +8279,40 @@
         <v>-6</v>
       </c>
       <c r="BK24" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="BL24" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="BM24" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="BN24" t="s">
+        <v>597</v>
+      </c>
+      <c r="BO24" t="s">
         <v>595</v>
       </c>
-      <c r="BO24" t="s">
-        <v>550</v>
-      </c>
       <c r="BP24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BQ24" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="BR24" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="BS24" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="CB24" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="CC24" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="CD24" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="CE24" t="s">
         <v>257</v>
@@ -8336,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="CO24" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:93">
@@ -8392,7 +8398,7 @@
         <v>258</v>
       </c>
       <c r="T25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U25" t="s">
         <v>303</v>
@@ -8401,19 +8407,19 @@
         <v>316</v>
       </c>
       <c r="W25" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="X25" t="s">
         <v>316</v>
       </c>
       <c r="Y25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AA25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AB25">
         <v>5</v>
@@ -8476,16 +8482,16 @@
         <v>0</v>
       </c>
       <c r="AV25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AW25" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AX25" t="s">
         <v>328</v>
       </c>
       <c r="AY25" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AZ25" t="s">
         <v>304</v>
@@ -8494,22 +8500,22 @@
         <v>320</v>
       </c>
       <c r="BB25" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="BC25" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="BD25" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="BE25" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="BF25" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="BG25" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="BH25">
         <v>111.8</v>
@@ -8521,40 +8527,40 @@
         <v>-2.2</v>
       </c>
       <c r="BK25" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="BL25" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="BM25" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="BN25" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="BO25" t="s">
         <v>192</v>
       </c>
       <c r="BP25" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="BQ25" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="BR25" t="s">
         <v>618</v>
       </c>
       <c r="BS25" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="CB25" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="CC25" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="CD25" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="CE25" t="s">
         <v>258</v>
@@ -8584,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="CO25" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:93">
@@ -8640,7 +8646,7 @@
         <v>259</v>
       </c>
       <c r="T26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U26" t="s">
         <v>304</v>
@@ -8649,7 +8655,7 @@
         <v>313</v>
       </c>
       <c r="W26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="X26" t="s">
         <v>317</v>
@@ -8661,7 +8667,7 @@
         <v>223</v>
       </c>
       <c r="AA26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AB26">
         <v>4</v>
@@ -8673,7 +8679,7 @@
         <v>-8</v>
       </c>
       <c r="AE26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF26">
         <v>3</v>
@@ -8724,40 +8730,40 @@
         <v>0</v>
       </c>
       <c r="AV26" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AW26" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AX26" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AY26" t="s">
         <v>311</v>
       </c>
       <c r="AZ26" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BA26" t="s">
         <v>322</v>
       </c>
       <c r="BB26" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="BC26" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="BD26" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="BE26" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="BF26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BG26" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="BH26">
         <v>108.1</v>
@@ -8769,40 +8775,40 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="BK26" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="BL26" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="BM26" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="BN26" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="BO26" t="s">
         <v>208</v>
       </c>
       <c r="BP26" t="s">
-        <v>541</v>
+        <v>578</v>
       </c>
       <c r="BQ26" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="BR26" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="BS26" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="CB26" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="CC26" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="CD26" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="CE26" t="s">
         <v>259</v>
@@ -8832,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="CO26" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:93">
@@ -8888,7 +8894,7 @@
         <v>260</v>
       </c>
       <c r="T27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U27" t="s">
         <v>305</v>
@@ -8921,7 +8927,7 @@
         <v>-8</v>
       </c>
       <c r="AE27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF27">
         <v>2</v>
@@ -8975,37 +8981,37 @@
         <v>235</v>
       </c>
       <c r="AW27" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AX27" t="s">
         <v>322</v>
       </c>
       <c r="AY27" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AZ27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BA27" t="s">
         <v>320</v>
       </c>
       <c r="BB27" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="BC27" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="BD27" t="s">
-        <v>288</v>
+        <v>398</v>
       </c>
       <c r="BE27" t="s">
         <v>236</v>
       </c>
       <c r="BF27" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="BG27" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="BH27">
         <v>106.1</v>
@@ -9017,46 +9023,46 @@
         <v>-6.2</v>
       </c>
       <c r="BK27" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="BL27" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="BM27" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="BN27" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="BO27" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="BP27" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="BQ27" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="BR27" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BS27" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="CB27" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="CC27" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="CD27" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="CE27" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="CF27" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="CG27" t="s">
         <v>320</v>
@@ -9080,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="CO27" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:93">
@@ -9136,7 +9142,7 @@
         <v>261</v>
       </c>
       <c r="T28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U28" t="s">
         <v>306</v>
@@ -9154,10 +9160,10 @@
         <v>329</v>
       </c>
       <c r="Z28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AA28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AB28">
         <v>-7</v>
@@ -9199,7 +9205,7 @@
         <v>23.5</v>
       </c>
       <c r="AO28">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AP28">
         <v>0</v>
@@ -9220,40 +9226,40 @@
         <v>0</v>
       </c>
       <c r="AV28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AW28" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AX28" t="s">
         <v>324</v>
       </c>
       <c r="AY28" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AZ28" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="BA28" t="s">
         <v>320</v>
       </c>
       <c r="BB28" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="BC28" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="BD28" t="s">
         <v>211</v>
       </c>
       <c r="BE28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BF28" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="BG28" t="s">
-        <v>288</v>
+        <v>398</v>
       </c>
       <c r="BH28">
         <v>111</v>
@@ -9265,46 +9271,46 @@
         <v>-7.9</v>
       </c>
       <c r="BK28" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="BL28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="BM28" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="BN28" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="BO28" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="BP28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="BQ28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="BR28" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="BS28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="CB28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="CC28" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="CD28" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="CE28" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="CF28" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="CG28" t="s">
         <v>324</v>
@@ -9328,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="CO28" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:93">
@@ -9366,7 +9372,7 @@
         <v>214</v>
       </c>
       <c r="M29" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N29">
         <v>5</v>
@@ -9375,19 +9381,19 @@
         <v>9</v>
       </c>
       <c r="P29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q29">
-        <v>0.265</v>
+        <v>0.257</v>
       </c>
       <c r="S29" t="s">
         <v>262</v>
       </c>
       <c r="T29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V29" t="s">
         <v>313</v>
@@ -9396,22 +9402,22 @@
         <v>316</v>
       </c>
       <c r="X29" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Y29" t="s">
         <v>320</v>
       </c>
       <c r="Z29" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AA29" t="s">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="AB29">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="AC29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD29">
         <v>-5</v>
@@ -9426,28 +9432,28 @@
         <v>6</v>
       </c>
       <c r="AH29">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="AI29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AJ29">
         <v>2</v>
       </c>
       <c r="AK29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AM29" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AN29">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="AO29">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -9468,91 +9474,91 @@
         <v>0</v>
       </c>
       <c r="AV29" t="s">
+        <v>391</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>409</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>326</v>
+      </c>
+      <c r="AY29" t="s">
         <v>390</v>
       </c>
-      <c r="AW29" t="s">
-        <v>407</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>325</v>
-      </c>
-      <c r="AY29" t="s">
-        <v>389</v>
-      </c>
       <c r="AZ29" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="BA29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="BB29" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="BC29" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="BD29" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="BE29" t="s">
         <v>301</v>
       </c>
       <c r="BF29" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="BG29" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="BH29">
-        <v>111.3</v>
+        <v>111.6</v>
       </c>
       <c r="BI29">
-        <v>118.4</v>
+        <v>118.5</v>
       </c>
       <c r="BJ29">
-        <v>-7.1</v>
+        <v>-6.9</v>
       </c>
       <c r="BK29" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="BL29" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="BM29" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="BN29" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="BO29" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="BP29" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="BQ29" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="BR29" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="BS29" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="CB29" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="CC29" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="CD29" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="CE29" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="CF29" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="CG29" t="s">
         <v>320</v>
@@ -9561,22 +9567,22 @@
         <v>320</v>
       </c>
       <c r="CI29">
-        <v>3784</v>
+        <v>3905</v>
       </c>
       <c r="CJ29">
-        <v>4024</v>
+        <v>4148</v>
       </c>
       <c r="CK29">
-        <v>-240</v>
+        <v>-243</v>
       </c>
       <c r="CL29">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="CN29">
         <v>0</v>
       </c>
       <c r="CO29" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:93">
@@ -9623,16 +9629,16 @@
         <v>7</v>
       </c>
       <c r="P30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q30">
-        <v>0.194</v>
+        <v>0.189</v>
       </c>
       <c r="S30" t="s">
         <v>263</v>
       </c>
       <c r="T30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U30" t="s">
         <v>307</v>
@@ -9650,7 +9656,7 @@
         <v>324</v>
       </c>
       <c r="Z30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AA30" t="s">
         <v>350</v>
@@ -9674,10 +9680,10 @@
         <v>11</v>
       </c>
       <c r="AH30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AJ30">
         <v>1</v>
@@ -9686,16 +9692,16 @@
         <v>370</v>
       </c>
       <c r="AL30">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AM30" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AN30">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="AO30">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AP30">
         <v>0</v>
@@ -9716,91 +9722,91 @@
         <v>0</v>
       </c>
       <c r="AV30" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AW30" t="s">
-        <v>212</v>
+        <v>410</v>
       </c>
       <c r="AX30" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AY30" t="s">
         <v>235</v>
       </c>
       <c r="AZ30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BA30" t="s">
         <v>322</v>
       </c>
       <c r="BB30" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="BC30" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="BD30" t="s">
-        <v>495</v>
+        <v>350</v>
       </c>
       <c r="BE30" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="BF30" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="BG30" t="s">
-        <v>426</v>
+        <v>285</v>
       </c>
       <c r="BH30">
-        <v>107.5</v>
+        <v>107.2</v>
       </c>
       <c r="BI30">
-        <v>117.5</v>
+        <v>117.1</v>
       </c>
       <c r="BJ30">
-        <v>-10</v>
+        <v>-9.9</v>
       </c>
       <c r="BK30" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="BL30" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="BM30" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="BN30" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="BO30" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="BP30" t="s">
-        <v>569</v>
+        <v>616</v>
       </c>
       <c r="BQ30" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="BR30" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="BS30" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="CB30" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="CC30" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="CD30" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="CE30" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="CF30" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="CG30" t="s">
         <v>320</v>
@@ -9809,22 +9815,22 @@
         <v>320</v>
       </c>
       <c r="CI30">
-        <v>3870</v>
+        <v>3967</v>
       </c>
       <c r="CJ30">
-        <v>4229</v>
+        <v>4333</v>
       </c>
       <c r="CK30">
-        <v>-359</v>
+        <v>-366</v>
       </c>
       <c r="CL30">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="CN30">
         <v>0</v>
       </c>
       <c r="CO30" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:93">
@@ -9967,34 +9973,34 @@
         <v>223</v>
       </c>
       <c r="AW31" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AX31" t="s">
         <v>328</v>
       </c>
       <c r="AY31" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AZ31" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="BA31" t="s">
         <v>324</v>
       </c>
       <c r="BB31" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="BC31" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="BD31" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="BE31" t="s">
         <v>231</v>
       </c>
       <c r="BF31" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="BG31" t="s">
         <v>233</v>
@@ -10009,46 +10015,46 @@
         <v>-13.2</v>
       </c>
       <c r="BK31" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="BL31" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="BM31" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="BN31" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="BO31" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="BP31" t="s">
+        <v>580</v>
+      </c>
+      <c r="BQ31" t="s">
         <v>581</v>
       </c>
-      <c r="BQ31" t="s">
-        <v>582</v>
-      </c>
       <c r="BR31" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="BS31" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="CB31" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="CC31" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="CD31" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="CE31" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="CF31" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="CG31" t="s">
         <v>320</v>
@@ -10072,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="CO31" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/teamstats_.xlsx
+++ b/teamstats_.xlsx
@@ -322,12 +322,12 @@
     <t>Orlando</t>
   </si>
   <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
     <t>Dallas</t>
   </si>
   <si>
-    <t>Milwaukee</t>
-  </si>
-  <si>
     <t>Los Angeles</t>
   </si>
   <si>
@@ -412,12 +412,12 @@
     <t>Magic</t>
   </si>
   <si>
+    <t>Bucks</t>
+  </si>
+  <si>
     <t>Mavericks</t>
   </si>
   <si>
-    <t>Bucks</t>
-  </si>
-  <si>
     <t>Lakers</t>
   </si>
   <si>
@@ -502,12 +502,12 @@
     <t>magic</t>
   </si>
   <si>
+    <t>bucks</t>
+  </si>
+  <si>
     <t>mavericks</t>
   </si>
   <si>
-    <t>bucks</t>
-  </si>
-  <si>
     <t>lakers</t>
   </si>
   <si>
@@ -598,12 +598,12 @@
     <t>18-10</t>
   </si>
   <si>
+    <t>16-14</t>
+  </si>
+  <si>
     <t>15-13</t>
   </si>
   <si>
-    <t>16-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">16-9 </t>
   </si>
   <si>
@@ -763,12 +763,12 @@
     <t>22-16</t>
   </si>
   <si>
+    <t>19-16</t>
+  </si>
+  <si>
     <t>21-16</t>
   </si>
   <si>
-    <t>19-16</t>
-  </si>
-  <si>
     <t>20-16</t>
   </si>
   <si>
@@ -1180,12 +1180,12 @@
     <t xml:space="preserve">12-2 </t>
   </si>
   <si>
+    <t xml:space="preserve">15-7 </t>
+  </si>
+  <si>
     <t xml:space="preserve">19-4 </t>
   </si>
   <si>
-    <t xml:space="preserve">15-7 </t>
-  </si>
-  <si>
     <t xml:space="preserve">16-3 </t>
   </si>
   <si>
@@ -1228,12 +1228,12 @@
     <t xml:space="preserve">1-10 </t>
   </si>
   <si>
+    <t xml:space="preserve">4-9  </t>
+  </si>
+  <si>
     <t xml:space="preserve">2-12 </t>
   </si>
   <si>
-    <t xml:space="preserve">4-9  </t>
-  </si>
-  <si>
     <t xml:space="preserve">4-12 </t>
   </si>
   <si>
@@ -1291,12 +1291,12 @@
     <t xml:space="preserve">14-2 </t>
   </si>
   <si>
+    <t xml:space="preserve">16-6 </t>
+  </si>
+  <si>
     <t xml:space="preserve">20-0 </t>
   </si>
   <si>
-    <t xml:space="preserve">16-6 </t>
-  </si>
-  <si>
     <t xml:space="preserve">18-2 </t>
   </si>
   <si>
@@ -1381,12 +1381,12 @@
     <t>21-12</t>
   </si>
   <si>
+    <t>18-14</t>
+  </si>
+  <si>
     <t>20-13</t>
   </si>
   <si>
-    <t>18-14</t>
-  </si>
-  <si>
     <t>20-11</t>
   </si>
   <si>
@@ -1546,10 +1546,10 @@
     <t xml:space="preserve">16-1 </t>
   </si>
   <si>
+    <t xml:space="preserve">19-6 </t>
+  </si>
+  <si>
     <t xml:space="preserve">17-7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19-6 </t>
   </si>
   <si>
     <t xml:space="preserve">15-5 </t>
@@ -3543,7 +3543,7 @@
         <v>507</v>
       </c>
       <c r="BF5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BG5" t="s">
         <v>283</v>
@@ -3785,7 +3785,7 @@
         <v>453</v>
       </c>
       <c r="BC6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BD6" t="s">
         <v>348</v>
@@ -4287,7 +4287,7 @@
         <v>495</v>
       </c>
       <c r="BE8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="BF8" t="s">
         <v>275</v>
@@ -4633,7 +4633,7 @@
         <v>93</v>
       </c>
       <c r="D10">
-        <v>1610612742</v>
+        <v>1610612749</v>
       </c>
       <c r="E10" t="s">
         <v>102</v>
@@ -4645,7 +4645,7 @@
         <v>162</v>
       </c>
       <c r="H10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I10" t="s">
         <v>194</v>
@@ -4654,70 +4654,70 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P10">
         <v>16</v>
       </c>
       <c r="Q10">
-        <v>0.5679999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S10" t="s">
         <v>249</v>
       </c>
       <c r="T10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="U10" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="V10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="W10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Y10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Z10" t="s">
-        <v>234</v>
+        <v>337</v>
       </c>
       <c r="AA10" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="AB10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AD10">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="AE10" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="AF10">
         <v>7</v>
       </c>
       <c r="AG10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -4726,22 +4726,22 @@
         <v>376</v>
       </c>
       <c r="AJ10">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AN10">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO10">
-        <v>3.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -4774,73 +4774,73 @@
         <v>425</v>
       </c>
       <c r="AZ10" t="s">
-        <v>311</v>
+        <v>438</v>
       </c>
       <c r="BA10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BB10" t="s">
         <v>455</v>
       </c>
       <c r="BC10" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="BD10" t="s">
-        <v>199</v>
+        <v>496</v>
       </c>
       <c r="BE10" t="s">
         <v>510</v>
       </c>
       <c r="BF10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BG10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="BH10">
-        <v>116.4</v>
+        <v>113</v>
       </c>
       <c r="BI10">
-        <v>111.9</v>
+        <v>110.8</v>
       </c>
       <c r="BJ10">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="BK10" t="s">
-        <v>541</v>
+        <v>194</v>
       </c>
       <c r="BL10" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="BM10" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="BN10" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="BO10" t="s">
-        <v>194</v>
+        <v>561</v>
       </c>
       <c r="BP10" t="s">
+        <v>581</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>580</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>566</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>569</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>565</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>619</v>
+      </c>
+      <c r="CD10" t="s">
         <v>540</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>546</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>564</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>596</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>561</v>
-      </c>
-      <c r="CC10" t="s">
-        <v>628</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>629</v>
       </c>
       <c r="CE10" t="s">
         <v>249</v>
@@ -4855,22 +4855,22 @@
         <v>325</v>
       </c>
       <c r="CI10">
-        <v>4308</v>
+        <v>3954</v>
       </c>
       <c r="CJ10">
-        <v>4139</v>
+        <v>3879</v>
       </c>
       <c r="CK10">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="CL10">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="CN10">
         <v>0</v>
       </c>
       <c r="CO10" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -4884,7 +4884,7 @@
         <v>93</v>
       </c>
       <c r="D11">
-        <v>1610612749</v>
+        <v>1610612742</v>
       </c>
       <c r="E11" t="s">
         <v>103</v>
@@ -4896,7 +4896,7 @@
         <v>163</v>
       </c>
       <c r="H11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I11" t="s">
         <v>195</v>
@@ -4905,70 +4905,70 @@
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P11">
         <v>16</v>
       </c>
       <c r="Q11">
-        <v>0.543</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S11" t="s">
         <v>250</v>
       </c>
       <c r="T11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="U11" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="V11" t="s">
+        <v>319</v>
+      </c>
+      <c r="W11" t="s">
+        <v>317</v>
+      </c>
+      <c r="X11" t="s">
         <v>318</v>
       </c>
-      <c r="W11" t="s">
-        <v>316</v>
-      </c>
-      <c r="X11" t="s">
-        <v>316</v>
-      </c>
       <c r="Y11" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Z11" t="s">
-        <v>337</v>
+        <v>234</v>
       </c>
       <c r="AA11" t="s">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="AB11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AC11" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AD11">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AF11">
         <v>7</v>
       </c>
       <c r="AG11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -4977,22 +4977,22 @@
         <v>376</v>
       </c>
       <c r="AJ11">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="AK11" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="AL11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM11" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AN11">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="AO11">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="AP11">
         <v>0</v>
@@ -5025,73 +5025,73 @@
         <v>426</v>
       </c>
       <c r="AZ11" t="s">
-        <v>438</v>
+        <v>311</v>
       </c>
       <c r="BA11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BB11" t="s">
         <v>456</v>
       </c>
       <c r="BC11" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="BD11" t="s">
-        <v>496</v>
+        <v>199</v>
       </c>
       <c r="BE11" t="s">
         <v>511</v>
       </c>
       <c r="BF11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BG11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="BH11">
-        <v>113</v>
+        <v>116.4</v>
       </c>
       <c r="BI11">
-        <v>110.8</v>
+        <v>111.9</v>
       </c>
       <c r="BJ11">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="BK11" t="s">
+        <v>541</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>562</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>568</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>559</v>
+      </c>
+      <c r="BO11" t="s">
         <v>195</v>
       </c>
-      <c r="BL11" t="s">
-        <v>542</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>554</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>595</v>
-      </c>
-      <c r="BO11" t="s">
+      <c r="BP11" t="s">
+        <v>540</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>546</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>564</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>596</v>
+      </c>
+      <c r="CB11" t="s">
         <v>561</v>
       </c>
-      <c r="BP11" t="s">
-        <v>581</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>580</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>566</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>569</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>565</v>
-      </c>
       <c r="CC11" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="CD11" t="s">
-        <v>540</v>
+        <v>629</v>
       </c>
       <c r="CE11" t="s">
         <v>250</v>
@@ -5106,22 +5106,22 @@
         <v>325</v>
       </c>
       <c r="CI11">
-        <v>3954</v>
+        <v>4308</v>
       </c>
       <c r="CJ11">
-        <v>3879</v>
+        <v>4139</v>
       </c>
       <c r="CK11">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="CL11">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="CN11">
         <v>0</v>
       </c>
       <c r="CO11" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:93">
@@ -6531,7 +6531,7 @@
         <v>391</v>
       </c>
       <c r="BF17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BG17" t="s">
         <v>351</v>
@@ -6770,7 +6770,7 @@
         <v>340</v>
       </c>
       <c r="BB18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BC18" t="s">
         <v>256</v>
@@ -7526,7 +7526,7 @@
         <v>302</v>
       </c>
       <c r="BE21" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BF21" t="s">
         <v>277</v>
@@ -8013,7 +8013,7 @@
         <v>333</v>
       </c>
       <c r="BB23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="BC23" t="s">
         <v>487</v>
@@ -8025,7 +8025,7 @@
         <v>391</v>
       </c>
       <c r="BF23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BG23" t="s">
         <v>495</v>
@@ -9011,7 +9011,7 @@
         <v>490</v>
       </c>
       <c r="BD27" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BE27" t="s">
         <v>237</v>
@@ -9268,7 +9268,7 @@
         <v>526</v>
       </c>
       <c r="BG28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BH28">
         <v>110.7</v>
